--- a/SchedulingData/dynamic11/pso/scheduling2_20.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,22 +466,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>219.08</v>
+        <v>225.98</v>
       </c>
       <c r="D2" t="n">
-        <v>271.48</v>
+        <v>287.28</v>
       </c>
       <c r="E2" t="n">
-        <v>15.312</v>
+        <v>10.932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -489,51 +489,51 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>271.48</v>
+        <v>239.34</v>
       </c>
       <c r="D3" t="n">
-        <v>309.24</v>
+        <v>292</v>
       </c>
       <c r="E3" t="n">
-        <v>12.176</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>309.24</v>
+        <v>256.04</v>
       </c>
       <c r="D4" t="n">
-        <v>368.52</v>
+        <v>318.94</v>
       </c>
       <c r="E4" t="n">
-        <v>9.368</v>
+        <v>11.296</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>219.68</v>
+        <v>287.28</v>
       </c>
       <c r="D5" t="n">
-        <v>272.94</v>
+        <v>340.88</v>
       </c>
       <c r="E5" t="n">
-        <v>10.396</v>
+        <v>7.692</v>
       </c>
     </row>
     <row r="6">
@@ -542,74 +542,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>251.34</v>
+        <v>318.94</v>
       </c>
       <c r="D6" t="n">
-        <v>300.72</v>
+        <v>351.94</v>
       </c>
       <c r="E6" t="n">
-        <v>11.568</v>
+        <v>9.135999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>233.26</v>
+        <v>206.78</v>
       </c>
       <c r="D7" t="n">
-        <v>305.86</v>
+        <v>264.52</v>
       </c>
       <c r="E7" t="n">
-        <v>10.084</v>
+        <v>11.708</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>368.52</v>
+        <v>264.52</v>
       </c>
       <c r="D8" t="n">
-        <v>417.92</v>
+        <v>315.96</v>
       </c>
       <c r="E8" t="n">
-        <v>6.068</v>
+        <v>9.164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>417.92</v>
+        <v>236.34</v>
       </c>
       <c r="D9" t="n">
-        <v>472</v>
+        <v>280.64</v>
       </c>
       <c r="E9" t="n">
-        <v>3.26</v>
+        <v>8.776</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>272.94</v>
+        <v>292</v>
       </c>
       <c r="D10" t="n">
-        <v>316.58</v>
+        <v>329.22</v>
       </c>
       <c r="E10" t="n">
-        <v>8.151999999999999</v>
+        <v>9.888</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>305.86</v>
+        <v>351.94</v>
       </c>
       <c r="D11" t="n">
-        <v>370.72</v>
+        <v>391.84</v>
       </c>
       <c r="E11" t="n">
-        <v>7.708</v>
+        <v>6.276</v>
       </c>
     </row>
     <row r="12">
@@ -656,93 +656,93 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>300.72</v>
+        <v>391.84</v>
       </c>
       <c r="D12" t="n">
-        <v>337.94</v>
+        <v>451.8</v>
       </c>
       <c r="E12" t="n">
-        <v>8.976000000000001</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>316.58</v>
+        <v>240.62</v>
       </c>
       <c r="D13" t="n">
-        <v>356.48</v>
+        <v>282.72</v>
       </c>
       <c r="E13" t="n">
-        <v>5.292</v>
+        <v>13.388</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>370.72</v>
+        <v>315.96</v>
       </c>
       <c r="D14" t="n">
-        <v>424.22</v>
+        <v>375.04</v>
       </c>
       <c r="E14" t="n">
-        <v>4.468</v>
+        <v>6.356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>229.38</v>
+        <v>282.72</v>
       </c>
       <c r="D15" t="n">
-        <v>293.14</v>
+        <v>341.9</v>
       </c>
       <c r="E15" t="n">
-        <v>11.876</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>237.64</v>
+        <v>375.04</v>
       </c>
       <c r="D16" t="n">
-        <v>303.14</v>
+        <v>428.74</v>
       </c>
       <c r="E16" t="n">
-        <v>14.776</v>
+        <v>3.116</v>
       </c>
     </row>
     <row r="17">
@@ -751,55 +751,55 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>356.48</v>
+        <v>329.22</v>
       </c>
       <c r="D17" t="n">
-        <v>403.6</v>
+        <v>356.42</v>
       </c>
       <c r="E17" t="n">
-        <v>2.7</v>
+        <v>7.808</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>337.94</v>
+        <v>341.9</v>
       </c>
       <c r="D18" t="n">
-        <v>394.76</v>
+        <v>420.2</v>
       </c>
       <c r="E18" t="n">
-        <v>6.384</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>293.14</v>
+        <v>420.2</v>
       </c>
       <c r="D19" t="n">
-        <v>339.94</v>
+        <v>473.54</v>
       </c>
       <c r="E19" t="n">
-        <v>9.795999999999999</v>
+        <v>4.616</v>
       </c>
     </row>
     <row r="20">
@@ -808,131 +808,131 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>303.14</v>
+        <v>280.64</v>
       </c>
       <c r="D20" t="n">
-        <v>360.36</v>
+        <v>326.26</v>
       </c>
       <c r="E20" t="n">
-        <v>10.184</v>
+        <v>5.344</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>472</v>
+        <v>473.54</v>
       </c>
       <c r="D21" t="n">
-        <v>529.1</v>
+        <v>520.74</v>
       </c>
       <c r="E21" t="n">
-        <v>0.18</v>
+        <v>2.496</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>529.1</v>
+        <v>520.74</v>
       </c>
       <c r="D22" t="n">
-        <v>610.64</v>
+        <v>547.9400000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>394.76</v>
+        <v>547.9400000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>478.06</v>
+        <v>619.01</v>
       </c>
       <c r="E23" t="n">
-        <v>3.144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>360.36</v>
+        <v>356.42</v>
       </c>
       <c r="D24" t="n">
-        <v>406.42</v>
+        <v>453.02</v>
       </c>
       <c r="E24" t="n">
-        <v>7.208</v>
+        <v>4.728</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>403.6</v>
+        <v>619.01</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8</v>
+        <v>678.6900000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>484.8</v>
+        <v>428.74</v>
       </c>
       <c r="D26" t="n">
-        <v>530.2</v>
+        <v>503.3</v>
       </c>
       <c r="E26" t="n">
-        <v>27.14</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="27">
@@ -941,55 +941,55 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>339.94</v>
+        <v>503.3</v>
       </c>
       <c r="D27" t="n">
-        <v>404.12</v>
+        <v>603.12</v>
       </c>
       <c r="E27" t="n">
-        <v>7.508</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>404.12</v>
+        <v>340.88</v>
       </c>
       <c r="D28" t="n">
-        <v>442.02</v>
+        <v>399.54</v>
       </c>
       <c r="E28" t="n">
-        <v>5.348</v>
+        <v>4.936</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>442.02</v>
+        <v>451.8</v>
       </c>
       <c r="D29" t="n">
-        <v>503.62</v>
+        <v>504.12</v>
       </c>
       <c r="E29" t="n">
-        <v>3.268</v>
+        <v>1.308</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>478.06</v>
+        <v>504.12</v>
       </c>
       <c r="D30" t="n">
-        <v>506.06</v>
+        <v>588.1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.984</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -1017,55 +1017,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>506.06</v>
+        <v>588.1</v>
       </c>
       <c r="D31" t="n">
-        <v>615.39</v>
+        <v>633.5599999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>503.62</v>
+        <v>399.54</v>
       </c>
       <c r="D32" t="n">
-        <v>555.16</v>
+        <v>453.1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.724</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>555.16</v>
+        <v>326.26</v>
       </c>
       <c r="D33" t="n">
-        <v>645.3099999999999</v>
+        <v>395</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="34">
@@ -1074,55 +1074,55 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>406.42</v>
+        <v>395</v>
       </c>
       <c r="D34" t="n">
-        <v>441.92</v>
+        <v>483.6</v>
       </c>
       <c r="E34" t="n">
-        <v>4.788</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>610.64</v>
+        <v>633.5599999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>677.84</v>
+        <v>679.0599999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>26.92</v>
+        <v>25.204</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>530.2</v>
+        <v>483.6</v>
       </c>
       <c r="D36" t="n">
-        <v>562.7</v>
+        <v>557.88</v>
       </c>
       <c r="E36" t="n">
-        <v>25.02</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="37">
@@ -1131,52 +1131,52 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>562.7</v>
+        <v>453.02</v>
       </c>
       <c r="D37" t="n">
-        <v>627.26</v>
+        <v>521.22</v>
       </c>
       <c r="E37" t="n">
-        <v>22.644</v>
+        <v>1.488</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>424.22</v>
+        <v>521.22</v>
       </c>
       <c r="D38" t="n">
-        <v>503.72</v>
+        <v>629.54</v>
       </c>
       <c r="E38" t="n">
-        <v>1.608</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>503.72</v>
+        <v>453.1</v>
       </c>
       <c r="D39" t="n">
-        <v>596.9</v>
+        <v>550.04</v>
       </c>
       <c r="E39" t="n">
         <v>30</v>
@@ -1184,78 +1184,59 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>627.26</v>
+        <v>550.04</v>
       </c>
       <c r="D40" t="n">
-        <v>666.22</v>
+        <v>617.84</v>
       </c>
       <c r="E40" t="n">
-        <v>19.888</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>615.39</v>
+        <v>629.54</v>
       </c>
       <c r="D41" t="n">
-        <v>675.17</v>
+        <v>677.26</v>
       </c>
       <c r="E41" t="n">
-        <v>27.192</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>596.9</v>
+        <v>557.88</v>
       </c>
       <c r="D42" t="n">
-        <v>636.3</v>
+        <v>627.48</v>
       </c>
       <c r="E42" t="n">
-        <v>26.76</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>pond29</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>675.17</v>
-      </c>
-      <c r="D43" t="n">
-        <v>715.33</v>
-      </c>
-      <c r="E43" t="n">
-        <v>24.816</v>
+        <v>24.852</v>
       </c>
     </row>
   </sheetData>
